--- a/ally-dataset/tracker.xlsx
+++ b/ally-dataset/tracker.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cebuinstituteoftechnology-my.sharepoint.com/personal/nathanrener_malagapo_cit_edu/Documents/CIT-U/BSIT/3rd Year/2nd Semester/IT332/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\nathan\2ndSem - 2425\Capstone-ALLY\ally-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{7355F91F-0BBD-49EE-9E6C-311FDC95F9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0285A40D-E90A-40B2-8759-23EBF0A56F88}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08EAE9DE-CC35-4A7A-BEDE-E76397DF841A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
   <si>
     <t>January</t>
   </si>
@@ -93,13 +92,16 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Encoded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +162,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -268,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -325,6 +333,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -664,21 +678,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97AC2ED8-0CB7-472B-BEBC-86ABEC6AFBE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.296875" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="13.28515625" style="1"/>
+    <col min="2" max="2" width="10.3984375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="13.296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -713,7 +727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -742,9 +756,9 @@
       </c>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
+    <row r="3" spans="1:11" ht="18" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1</v>
@@ -755,7 +769,7 @@
       <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
@@ -769,9 +783,9 @@
       </c>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
+    <row r="4" spans="1:11" ht="18" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>2</v>
@@ -794,9 +808,9 @@
       </c>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
+    <row r="5" spans="1:11" ht="18" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -821,8 +835,10 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:11" ht="18" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
@@ -846,7 +862,7 @@
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -855,7 +871,7 @@
       <c r="D7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="10" t="s">
         <v>5</v>
       </c>
@@ -869,7 +885,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="18" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="10" t="s">
         <v>6</v>
@@ -892,7 +908,7 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="18" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="10" t="s">
         <v>7</v>
@@ -915,7 +931,7 @@
       </c>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="18" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="10" t="s">
         <v>8</v>
@@ -938,7 +954,7 @@
       </c>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="18" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="10" t="s">
         <v>9</v>
@@ -961,7 +977,7 @@
       </c>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="18" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="10" t="s">
         <v>10</v>
@@ -984,7 +1000,7 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18" customHeight="1" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="15" t="s">
         <v>11</v>
